--- a/documentation/Architecture_tables.xlsx
+++ b/documentation/Architecture_tables.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\MALG\documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12315" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12315" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="FLMALS" sheetId="1" r:id="rId1"/>
@@ -15,18 +20,12 @@
     <sheet name="MALGro" sheetId="5" r:id="rId6"/>
     <sheet name="equations exploration" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="271">
-  <si>
-    <t xml:space="preserve">Name </t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="267">
   <si>
     <t>MALNmin</t>
   </si>
@@ -64,9 +63,6 @@
     <t>MacroALgae Carbon storage</t>
   </si>
   <si>
-    <t>Substances</t>
-  </si>
-  <si>
     <t>Temp</t>
   </si>
   <si>
@@ -82,9 +78,6 @@
     <t>growth rate parameter 1</t>
   </si>
   <si>
-    <t>default</t>
-  </si>
-  <si>
     <t>MALS0</t>
   </si>
   <si>
@@ -109,9 +102,6 @@
     <t>mrtMAL</t>
   </si>
   <si>
-    <t>unit</t>
-  </si>
-  <si>
     <t>MacroALgae Structural biomass</t>
   </si>
   <si>
@@ -133,9 +123,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>in broch, we have ~ 0.6 g/dm2</t>
-  </si>
-  <si>
     <t>m2/DM</t>
   </si>
   <si>
@@ -724,15 +711,9 @@
     <t>gP/gDM day</t>
   </si>
   <si>
-    <t>22;</t>
-  </si>
-  <si>
     <t>minimum C instorage</t>
   </si>
   <si>
-    <t>27;</t>
-  </si>
-  <si>
     <t>carbon dry matter ration in structural mass</t>
   </si>
   <si>
@@ -833,13 +814,25 @@
   </si>
   <si>
     <t>28;</t>
+  </si>
+  <si>
+    <t>MBotSeg</t>
+  </si>
+  <si>
+    <t>bottom segment for this segment</t>
+  </si>
+  <si>
+    <t>23;</t>
+  </si>
+  <si>
+    <t>29;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,13 +842,6 @@
     </font>
     <font>
       <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -875,7 +861,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -892,42 +878,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -938,6 +911,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1240,11 +1216,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165236736"/>
-        <c:axId val="165238272"/>
+        <c:axId val="178477368"/>
+        <c:axId val="178482072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165236736"/>
+        <c:axId val="178477368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1254,12 +1230,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165238272"/>
+        <c:crossAx val="178482072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165238272"/>
+        <c:axId val="178482072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1270,14 +1246,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165236736"/>
+        <c:crossAx val="178477368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1370,7 +1345,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1405,7 +1380,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1614,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD26"/>
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,957 +1604,974 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="A2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>123</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2">
         <v>-999</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-999</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-999</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-999</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-999</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-999</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-999</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-999</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-999</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.1085</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4">
-        <v>-999</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4">
-        <v>-999</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5">
-        <v>-999</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="7">
-        <v>-999</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="4">
-        <v>-999</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="4">
-        <v>-999</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="5">
+        <v>3.6700000000000001E-3</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="4">
-        <v>-999</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="4">
-        <v>-999</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.1085</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="4">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="7">
-        <v>3.6700000000000001E-3</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B24" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <f>0.01/B24</f>
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="7">
+      <c r="C25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="5">
         <f>0.001/B24</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B29" s="16">
+        <v>-999</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="5">
+        <v>-999</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="5">
+        <v>-999</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="5">
+        <v>-999</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="C33" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="7">
-        <v>-999</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="7">
-        <v>-999</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="7">
-        <v>-999</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7" t="s">
+      <c r="B41" s="5"/>
+      <c r="C41" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="B42" s="5"/>
+      <c r="C42" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="E43" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="E44" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="C49" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="4" t="s">
+      <c r="B55" s="2"/>
+      <c r="C55" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="E55" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" s="4" t="s">
+      <c r="B56" s="2"/>
+      <c r="C56" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="E56" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2597,203 +2589,203 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-999</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="2">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="2">
+        <v>86400</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" s="4">
-        <v>-999</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B6" s="4">
-        <v>52</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="4" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B8" s="4">
-        <v>86400</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="4" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>186</v>
+      <c r="A20" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2812,313 +2804,313 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>123</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-999</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-999</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-999</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-999</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="E8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-999</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-999</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-999</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-999</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>123</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="7">
-        <v>-999</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="7">
-        <v>-999</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="2">
+        <v>100</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="7">
-        <v>-999</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="E17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="7">
-        <v>-999</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="4">
-        <v>-999</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="E19" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
-        <v>-999</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4">
-        <v>-999</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5">
-        <v>-999</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" s="4">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="4">
-        <v>100</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3126,10 +3118,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:E28"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3142,685 +3134,702 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E1" s="4"/>
+      <c r="A1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>123</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
         <v>-999</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>94</v>
+      <c r="C5" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
         <v>-999</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>94</v>
+      <c r="C6" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-999</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-999</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-999</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="5">
+        <v>-999</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="4">
-        <v>-999</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="7">
-        <v>-999</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="4">
-        <v>-999</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="7">
-        <v>-999</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="B12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2">
         <v>0.01</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>222</v>
+      <c r="C14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="B15" s="14">
+        <v>28</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="12">
         <v>0.2</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="14">
+      <c r="C15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="12">
         <f>0.01/B15</f>
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="14">
+      <c r="C16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="12">
         <f>0.001/B15</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="C17" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.123</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1.239E-2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="5">
+        <v>-999</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B24" s="16">
+        <v>-999</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="5">
+        <v>-999</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="5">
+        <v>-999</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="5">
+        <v>-999</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="C28" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>206</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B18" s="4">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.123</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B20" s="4">
-        <v>5.5999999999999999E-3</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1.239E-2</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="7">
-        <v>-999</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="7">
-        <v>-999</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="7">
-        <v>-999</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="7">
-        <v>-999</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" t="s">
-        <v>212</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" t="s">
-        <v>226</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="10"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="10"/>
+      <c r="B46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="10"/>
+      <c r="B47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="10"/>
+      <c r="B48" s="8"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="10"/>
+      <c r="B49" s="8"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="10"/>
+      <c r="B50" s="8"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="10"/>
+      <c r="B51" s="8"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="10"/>
+      <c r="B52" s="8"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="10"/>
+      <c r="B53" s="8"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="10"/>
+      <c r="B54" s="8"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="10"/>
+      <c r="B55" s="8"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="10"/>
+      <c r="B56" s="8"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="10"/>
+      <c r="B57" s="8"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="10"/>
+      <c r="B58" s="8"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="10"/>
+      <c r="B59" s="8"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3829,10 +3838,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3845,623 +3854,640 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="A1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>123</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2">
         <v>-999</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>94</v>
+      <c r="C5" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="14">
+      <c r="A6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="12">
         <v>-999</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="C6" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="A7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="5">
         <v>-999</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="C7" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
         <v>0.01</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
+      <c r="C8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="A9" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="2">
         <v>0.2</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>237</v>
+      <c r="C9" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="A10" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="2">
         <v>1.67</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="C10" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
         <v>15</v>
       </c>
-      <c r="B11" s="4">
-        <v>15</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="B12" s="17">
+      <c r="C11" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" s="15">
         <f>0.0002785*1.67*24</f>
         <v>1.1162279999999998E-2</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="B13" s="17">
+      <c r="C12" s="16"/>
+      <c r="D12" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" s="15">
         <f>0.0005429*1.67*24</f>
         <v>2.1759432000000002E-2</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2">
         <f>285</f>
         <v>285</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="4">
+      <c r="A15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="2">
         <f>290</f>
         <v>290</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="C15" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B16" s="13">
+      <c r="A16" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" s="11">
         <v>4.8800000000000003E-2</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="C16" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B17" s="13">
+      <c r="A17" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" s="11">
         <v>5.7600000000000005E-2</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="B18" s="17">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18" s="15">
         <f>273+10</f>
         <v>283</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="B19" s="17">
+      <c r="C18" s="16"/>
+      <c r="D18" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B19" s="15">
         <f>273+15</f>
         <v>288</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="4">
+      <c r="A20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="2">
         <f>1694.4-273</f>
         <v>1421.4</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="C20" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="4">
+      <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2">
         <f>25924</f>
         <v>25924</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="2">
+        <v>27774</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="2">
+        <v>11033</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-999</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25" s="2">
+        <v>-999</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="15">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="16">
+        <v>44</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B28" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B29" s="16">
+        <v>-999</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="16">
+        <v>-999</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="16">
+        <v>-999</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="2">
+        <v>-999</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="4">
-        <v>27774</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="4">
-        <v>11033</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B24" s="4">
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="16">
         <v>-999</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B25" s="4">
-        <v>-999</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="17">
-        <v>1.5E-3</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="18">
-        <v>44</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="B28" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="18">
-        <v>-999</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="18">
-        <v>-999</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="4">
-        <v>-999</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="B32" s="18">
-        <v>-999</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17"/>
-    </row>
-    <row r="35" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-    </row>
-    <row r="36" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-    </row>
-    <row r="37" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-    </row>
-    <row r="38" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-    </row>
-    <row r="39" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C33" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+    </row>
+    <row r="37" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+    </row>
+    <row r="38" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+    </row>
+    <row r="39" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+    </row>
+    <row r="40" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4469,10 +4495,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4482,169 +4508,7 @@
     <col min="3" max="3" width="39" customWidth="1"/>
     <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="4">
-        <v>-999</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <f>6*0.6</f>
-        <v>3.5999999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4661,21 +4525,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B1">
         <v>0.1085</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0.03</v>
@@ -4690,7 +4554,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>6</v>

--- a/documentation/Architecture_tables.xlsx
+++ b/documentation/Architecture_tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12315" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="13890" windowHeight="12240" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="FLMALS" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="319">
   <si>
     <t>MALNmin</t>
   </si>
@@ -279,9 +279,6 @@
     <t>degK</t>
   </si>
   <si>
-    <t>DenMAL</t>
-  </si>
-  <si>
     <t>Maximum heigh MAL</t>
   </si>
   <si>
@@ -363,9 +360,6 @@
     <t>0;</t>
   </si>
   <si>
-    <t>N;</t>
-  </si>
-  <si>
     <t># output items for segments</t>
   </si>
   <si>
@@ -696,21 +690,12 @@
     <t>PO4 uptake by Macroalgae nitrogen storage</t>
   </si>
   <si>
-    <t>(Gp/M3/D)</t>
-  </si>
-  <si>
     <t>JNmax</t>
   </si>
   <si>
     <t>JPmax</t>
   </si>
   <si>
-    <t>gN/gDM day</t>
-  </si>
-  <si>
-    <t>gP/gDM day</t>
-  </si>
-  <si>
     <t>minimum C instorage</t>
   </si>
   <si>
@@ -744,15 +729,6 @@
     <t>Reference photosynthetic rate at T2</t>
   </si>
   <si>
-    <t>Astruct</t>
-  </si>
-  <si>
-    <t>dm2/gC</t>
-  </si>
-  <si>
-    <t>area per structural mass</t>
-  </si>
-  <si>
     <t>FlMALC</t>
   </si>
   <si>
@@ -765,12 +741,6 @@
     <t>C to dry mass ratio in MALS</t>
   </si>
   <si>
-    <t>gC/gDM d</t>
-  </si>
-  <si>
-    <t>1/gDM</t>
-  </si>
-  <si>
     <t>gN/gC</t>
   </si>
   <si>
@@ -822,16 +792,206 @@
     <t>bottom segment for this segment</t>
   </si>
   <si>
-    <t>23;</t>
-  </si>
-  <si>
     <t>29;</t>
+  </si>
+  <si>
+    <t>MalGro</t>
+  </si>
+  <si>
+    <t>MALGRO</t>
+  </si>
+  <si>
+    <t>MacroALgae phosphorous storage</t>
+  </si>
+  <si>
+    <t>Bottom segment for this segment</t>
+  </si>
+  <si>
+    <t>Local growth flux MALS</t>
+  </si>
+  <si>
+    <t>Local growth flux MALN</t>
+  </si>
+  <si>
+    <t>Local growth flux MALP</t>
+  </si>
+  <si>
+    <t>Local growth flux MALC</t>
+  </si>
+  <si>
+    <t>gDM/m3d</t>
+  </si>
+  <si>
+    <t>Bottem segment for this segment</t>
+  </si>
+  <si>
+    <t>length of frond in this column</t>
+  </si>
+  <si>
+    <t>LinDenMAL</t>
+  </si>
+  <si>
+    <t>ArDenMAL</t>
+  </si>
+  <si>
+    <t>12;</t>
+  </si>
+  <si>
+    <t>AactMAL</t>
+  </si>
+  <si>
+    <t>Actual area of entire macroalgae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 </t>
+  </si>
+  <si>
+    <t>area of frond in this column</t>
+  </si>
+  <si>
+    <t>gN/m2</t>
+  </si>
+  <si>
+    <t>gP/m2</t>
+  </si>
+  <si>
+    <t>gC/m2</t>
+  </si>
+  <si>
+    <t>1/m2</t>
+  </si>
+  <si>
+    <t>MacroALgae Structural mass</t>
+  </si>
+  <si>
+    <t>24;</t>
+  </si>
+  <si>
+    <t>gN/m2 day</t>
+  </si>
+  <si>
+    <t>gP/m2 day</t>
+  </si>
+  <si>
+    <t>grams per m2 surface area of plant (Broch)</t>
+  </si>
+  <si>
+    <t>ArDenMALS</t>
+  </si>
+  <si>
+    <t>gC/m2 d</t>
+  </si>
+  <si>
+    <t>LocUpC</t>
+  </si>
+  <si>
+    <t>gN/m3d</t>
+  </si>
+  <si>
+    <t>gP/m3d</t>
+  </si>
+  <si>
+    <t>gC/m3d</t>
+  </si>
+  <si>
+    <t>1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # stoichiometry lines dispersion arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # stoichiometry lines velocity arrays</t>
+  </si>
+  <si>
+    <t>dMALTIC</t>
+  </si>
+  <si>
+    <t>dMALDOC</t>
+  </si>
+  <si>
+    <t>dMALCOXY</t>
+  </si>
+  <si>
+    <t>TIC</t>
+  </si>
+  <si>
+    <t>DOC</t>
+  </si>
+  <si>
+    <t>OXY</t>
+  </si>
+  <si>
+    <t>TIC uptake by MALS</t>
+  </si>
+  <si>
+    <t>DOC production by MALS</t>
+  </si>
+  <si>
+    <t>OXY production by MALS</t>
+  </si>
+  <si>
+    <t>MALDIS</t>
+  </si>
+  <si>
+    <t>POC1</t>
+  </si>
+  <si>
+    <t>POC2</t>
+  </si>
+  <si>
+    <t>PON1</t>
+  </si>
+  <si>
+    <t>PON2</t>
+  </si>
+  <si>
+    <t>POP1</t>
+  </si>
+  <si>
+    <t>POP2</t>
+  </si>
+  <si>
+    <t>dMALS</t>
+  </si>
+  <si>
+    <t>dMALN</t>
+  </si>
+  <si>
+    <t>dMALP</t>
+  </si>
+  <si>
+    <t>dMALC</t>
+  </si>
+  <si>
+    <t>growth of structural mass</t>
+  </si>
+  <si>
+    <t>growth of nitrogen storage</t>
+  </si>
+  <si>
+    <t>growth of phosphorous storage</t>
+  </si>
+  <si>
+    <t>growth of carbon storage</t>
+  </si>
+  <si>
+    <t>Calculation of current, previous, and max daylength</t>
+  </si>
+  <si>
+    <t>Distribution of macroalgae mass in water column</t>
+  </si>
+  <si>
+    <t>Growth of macroalgae</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -861,7 +1021,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -869,39 +1029,28 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1216,11 +1365,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="178477368"/>
-        <c:axId val="178482072"/>
+        <c:axId val="241067072"/>
+        <c:axId val="241069424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178477368"/>
+        <c:axId val="241067072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1230,12 +1379,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178482072"/>
+        <c:crossAx val="241069424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178482072"/>
+        <c:axId val="241069424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,13 +1395,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178477368"/>
+        <c:crossAx val="241067072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1589,989 +1739,1133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="2"/>
+      <c r="A1" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="7"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="7">
         <v>123</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="12">
         <v>-999</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="12">
         <v>-999</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
+      <c r="E6" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="12">
         <v>-999</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
+      <c r="E7" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="13">
         <v>-999</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>29</v>
+      <c r="E8" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="A9" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="13">
         <v>-999</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="12">
         <v>0.01</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="12">
         <v>0.01</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="12">
         <v>0.01</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="C12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="12">
         <v>-999</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="A14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="12">
         <v>-999</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>95</v>
+      <c r="C14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="A15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="12">
         <v>-999</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>95</v>
+      <c r="C15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="2">
+      <c r="A16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="12">
         <v>-999</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="12">
         <v>15</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="12">
         <v>0.1085</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="12">
         <v>0.03</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="12">
+        <v>-999</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21" s="12">
+        <v>-999</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="2">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="B22" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>31</v>
+      <c r="E22" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="5">
-        <v>3.6700000000000001E-3</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="B25" s="13">
+        <v>22</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B24" s="5">
+      <c r="E25" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" s="13">
         <v>0.2</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="C26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="13">
+        <f>0.01/B26</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="5">
-        <f>0.01/B24</f>
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="B28" s="13">
+        <f>0.001/B26</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="5">
-        <f>0.001/B24</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="B29" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31" s="13">
+        <v>-999</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="B32" s="13">
+        <v>-999</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="13">
+        <v>-999</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="B29" s="16">
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="13">
         <v>-999</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" s="5">
-        <v>-999</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="5">
-        <v>-999</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="C34" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E34" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="5">
-        <v>-999</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5" t="s">
+      <c r="C35" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="B37" s="7"/>
+      <c r="C37" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>29</v>
+      <c r="E38" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>31</v>
+      <c r="A39" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>31</v>
+      <c r="A40" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="A41" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E42" s="5" t="s">
+      <c r="A42" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" s="5" t="s">
+      <c r="A43" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="6" t="s">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E47" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E45" s="6" t="s">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="5"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="A50" s="9"/>
+      <c r="B50" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="8"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="A51" s="9"/>
+      <c r="B51" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="8"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="A52" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>123</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="A53" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>123</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>124</v>
+      <c r="A54" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>124</v>
+      <c r="A55" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>140</v>
+      <c r="A56" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="9"/>
+      <c r="B59" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="12">
+        <v>1</v>
+      </c>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="12">
+        <v>1</v>
+      </c>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="12">
+        <v>1</v>
+      </c>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="12">
+        <v>1</v>
+      </c>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="12">
+        <v>1</v>
+      </c>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" s="12">
+        <v>1</v>
+      </c>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" s="12">
+        <v>-1</v>
+      </c>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>178</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2584,27 +2878,30 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2614,102 +2911,102 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="2">
+        <v>184</v>
+      </c>
+      <c r="B5" s="12">
         <v>-999</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" s="2">
+        <v>181</v>
+      </c>
+      <c r="B6" s="12">
         <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" s="2">
+        <v>182</v>
+      </c>
+      <c r="B7" s="12">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" s="2">
+        <v>183</v>
+      </c>
+      <c r="B8" s="12">
         <v>86400</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>31</v>
@@ -2717,13 +3014,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>31</v>
@@ -2731,13 +3028,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>31</v>
@@ -2745,47 +3042,47 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2796,31 +3093,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>143</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>148</v>
+        <v>317</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2828,7 +3126,7 @@
     </row>
     <row r="2" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>144</v>
+        <v>301</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2851,101 +3149,101 @@
     <row r="4" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>114</v>
+        <v>269</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="5">
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="13">
         <v>-999</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="13">
         <v>-999</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="13">
+        <v>-999</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="5">
+      <c r="E7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="13">
         <v>-999</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="C8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="5">
-        <v>-999</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="E8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="12">
         <v>-999</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>88</v>
+      <c r="C9" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>25</v>
@@ -2958,159 +3256,255 @@
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="12">
         <v>-999</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>88</v>
+      <c r="C10" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="12">
         <v>-999</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>88</v>
+      <c r="C11" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="13">
         <v>-999</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>29</v>
+      <c r="E12" s="5" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="2">
+        <v>148</v>
+      </c>
+      <c r="B13" s="12">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="2">
-        <v>100</v>
+        <v>267</v>
+      </c>
+      <c r="B14" s="12">
+        <v>300</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="12">
+        <v>60</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16" s="12">
+        <v>-999</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="E21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3118,718 +3512,773 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
         <v>123</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="15">
+        <v>-999</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="15">
         <v>-999</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="15">
         <v>-999</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="E7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="15">
         <v>-999</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="C8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B9" s="16">
         <v>-999</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="C9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="15">
         <v>-999</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="C10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="16">
         <v>-999</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="C11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="15">
         <v>0.01</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="15">
         <v>1E-3</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="16">
+        <f>0.01/B16</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="16">
+        <f>0.001/B16</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="15">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" s="15">
+        <v>0.123</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21" s="15">
+        <f>0.00014*24*100</f>
+        <v>0.33599999999999997</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22" s="15">
+        <v>0.74327999999999983</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="16">
+        <v>-999</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B25" s="16">
+        <v>-999</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="16">
+        <v>-999</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="16">
+        <v>-999</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="16">
+        <v>-999</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B15" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="12">
-        <f>0.01/B15</f>
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="12">
-        <f>0.001/B15</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="E31" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B18" s="2">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B19" s="2">
-        <v>0.123</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B20" s="2">
-        <v>5.5999999999999999E-3</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1.239E-2</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="5">
-        <v>-999</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="B24" s="16">
-        <v>-999</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="5">
-        <v>-999</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="5">
-        <v>-999</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="5">
-        <v>-999</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="E33" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5" t="s">
+      <c r="C34" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" t="s">
-        <v>206</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="D40" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D41" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" t="s">
-        <v>220</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="8"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="8"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="8"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="8"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="8"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="8"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="8"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="8"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="8"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="8"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="8"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="8"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="8"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="8"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="8"/>
+      <c r="D42" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D43" s="13"/>
+    </row>
+    <row r="44" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="14"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="14"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="14"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="14"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="14"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="14"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="14"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="14"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="14"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="14"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="14"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="14"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="14"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="14"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3838,76 +4287,60 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
         <v>123</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="12">
         <v>-999</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>88</v>
+      <c r="C5" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>25</v>
@@ -3915,579 +4348,626 @@
       <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="13">
         <v>-999</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="13">
+        <v>-999</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" s="5">
-        <v>-999</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B9" s="2">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="12">
         <v>0.2</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>229</v>
+      <c r="C9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1.67</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" s="12">
+        <v>60</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
-        <v>15</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="B11" s="12">
+        <f>273+15</f>
+        <v>288</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="B12" s="15">
-        <f>0.0002785*1.67*24</f>
-        <v>1.1162279999999998E-2</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="E11" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0.66839999999999999</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="B13" s="15">
-        <f>0.0005429*1.67*24</f>
-        <v>2.1759432000000002E-2</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="12">
+        <v>1.3029600000000001</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="12">
         <f>285</f>
         <v>285</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="12">
         <f>290</f>
         <v>290</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B16" s="11">
-        <v>4.8800000000000003E-2</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B17" s="11">
-        <v>5.7600000000000005E-2</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="B18" s="15">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" s="12">
+        <v>2.9279999999999999</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" s="12">
+        <v>3.456</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="12">
         <f>273+10</f>
         <v>283</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="E18" s="15" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="B19" s="15">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="12">
         <f>273+15</f>
         <v>288</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="E19" s="15" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="12">
         <f>1694.4-273</f>
         <v>1421.4</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="12">
         <f>25924</f>
         <v>25924</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="12">
         <v>27774</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="12">
         <v>11033</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B24" s="2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" s="12">
         <v>-999</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B25" s="2">
+      <c r="E24" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="12">
         <v>-999</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="C25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="15">
-        <v>1.5E-3</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="B26" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="E26" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="13">
         <v>44</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="16" t="s">
+      <c r="C27" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="B28" s="16">
+      <c r="E27" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B28" s="13">
         <v>0.5</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="B29" s="16">
+      <c r="C28" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" s="13">
         <v>-999</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="C29" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="13">
+        <v>-999</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B31" s="13">
         <v>-999</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="16" t="s">
+      <c r="C31" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="16">
+      <c r="E31" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="12">
         <v>-999</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="2">
+      <c r="C32" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="13">
         <v>-999</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="16">
-        <v>-999</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16" t="s">
+      <c r="C33" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16" t="s">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-    </row>
-    <row r="37" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-    </row>
-    <row r="38" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-    </row>
-    <row r="39" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-    </row>
-    <row r="40" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="43" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D43" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D44" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D45" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D46" s="13"/>
+    </row>
+    <row r="47" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4495,20 +4975,373 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="7"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="7">
+        <v>-999</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8">
+        <v>-999</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8">
+        <v>-999</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8">
+        <v>-999</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="8">
+        <v>-999</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="8">
+        <v>-999</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="8">
+        <v>-999</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="8">
+        <v>-999</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="8">
+        <v>-999</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="8">
+        <v>-999</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
